--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fga-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fga-Itgam.xlsx
@@ -85,7 +85,7 @@
     <t>Itgam</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N2">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>75.88447046681866</v>
+        <v>0.01848741021933334</v>
       </c>
       <c r="R2">
-        <v>682.9602342013679</v>
+        <v>0.166386691974</v>
       </c>
       <c r="S2">
         <v>1</v>
